--- a/codigo/2D/ejemplo_T3/python/malla_ejemplo.xlsx
+++ b/codigo/2D/ejemplo_T3/python/malla_ejemplo.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="981" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="xnod" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="LaG" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="LaG_mat" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="restric" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="carga_distr" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="carga_punt" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="prop_mat" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -38,7 +39,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">m</t>
+          <t>m</t>
         </r>
       </text>
     </comment>
@@ -51,7 +52,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">m</t>
+          <t>m</t>
         </r>
       </text>
     </comment>
@@ -69,13 +70,12 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">X=1, Y=2</t>
+          <t>X=1, Y=2</t>
         </r>
       </text>
     </comment>
@@ -88,7 +88,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">m</t>
+          <t>m</t>
         </r>
       </text>
     </comment>
@@ -111,7 +111,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">N/m^2</t>
+          <t>N/m^2</t>
         </r>
       </text>
     </comment>
@@ -122,8 +122,9 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">N/m^2</t>
+          <t>N/m^2</t>
         </r>
       </text>
     </comment>
@@ -134,8 +135,9 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">N/m^2</t>
+          <t>N/m^2</t>
         </r>
       </text>
     </comment>
@@ -146,8 +148,9 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">N/m^2</t>
+          <t>N/m^2</t>
         </r>
       </text>
     </comment>
@@ -170,7 +173,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">X=1, Y=2</t>
+          <t>X=1, Y=2</t>
         </r>
       </text>
     </comment>
@@ -183,7 +186,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">N</t>
+          <t>N</t>
         </r>
       </text>
     </comment>
@@ -191,66 +194,131 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Pa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kg/m^3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>m</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">nodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dirección</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desplazamiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elemento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tiy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tjx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tjy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fuerza puntual</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+  <si>
+    <t>nodo</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>NL1</t>
+  </si>
+  <si>
+    <t>NL2</t>
+  </si>
+  <si>
+    <t>NL3</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>dirección</t>
+  </si>
+  <si>
+    <t>desplazamiento</t>
+  </si>
+  <si>
+    <t>elemento</t>
+  </si>
+  <si>
+    <t>lado</t>
+  </si>
+  <si>
+    <t>tix</t>
+  </si>
+  <si>
+    <t>tiy</t>
+  </si>
+  <si>
+    <t>tjx</t>
+  </si>
+  <si>
+    <t>tjy</t>
+  </si>
+  <si>
+    <t>fuerza puntual</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>espesor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -280,9 +348,17 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -327,7 +403,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -344,6 +420,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -369,7 +453,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,17 +663,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L26" activeCellId="0" sqref="L26"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="4.40816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,6 +689,9 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -618,6 +705,9 @@
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,6 +724,9 @@
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -649,6 +742,9 @@
       <c r="D4" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -664,6 +760,9 @@
       <c r="D5" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -679,6 +778,9 @@
       <c r="D6" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -694,6 +796,9 @@
       <c r="D7" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -709,6 +814,9 @@
       <c r="D8" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -724,6 +832,9 @@
       <c r="D9" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -739,6 +850,9 @@
       <c r="D10" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -754,6 +868,9 @@
       <c r="D11" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -769,6 +886,9 @@
       <c r="D12" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -784,6 +904,9 @@
       <c r="D13" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -799,6 +922,9 @@
       <c r="D14" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -814,6 +940,9 @@
       <c r="D15" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -829,6 +958,9 @@
       <c r="D16" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -843,6 +975,9 @@
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -864,14 +999,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -879,10 +1014,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -943,27 +1078,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1025,13 +1160,13 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,6 +1202,68 @@
       <c r="C3" s="3" t="n">
         <f aca="false">7000*SIN(RADIANS(60))</f>
         <v>6062.17782649107</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>200000000000</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>7850</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
